--- a/Data/EC/NIT-9007858451.xlsx
+++ b/Data/EC/NIT-9007858451.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9490098-11E0-431B-8AC4-66C90F024D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFD355BB-9B12-4082-A5E3-578A7766998C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{26CE3526-D8E1-4ABD-9CD9-4C5AC6BB6CC4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{39B389CB-7E64-4B45-9403-62B79378073F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="81">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,178 +65,187 @@
     <t>CC</t>
   </si>
   <si>
+    <t>9042863</t>
+  </si>
+  <si>
+    <t>RAUL MARTINEZ WILCHEZ</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>8981405</t>
+  </si>
+  <si>
+    <t>BENJAMIN RIOS CASTELLON</t>
+  </si>
+  <si>
+    <t>1143353681</t>
+  </si>
+  <si>
+    <t>LEONARDO JOSE MUÑOZ VERGARA</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1047410293</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS MARTINEZ CARRILLO</t>
+  </si>
+  <si>
     <t>1128054781</t>
   </si>
   <si>
     <t>HELBER PERTUZ BELLO</t>
   </si>
   <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>9042863</t>
-  </si>
-  <si>
-    <t>RAUL MARTINEZ WILCHEZ</t>
+    <t>73432381</t>
+  </si>
+  <si>
+    <t>MARIO RAFAEL PARRA HERRERA</t>
+  </si>
+  <si>
+    <t>1610</t>
   </si>
   <si>
     <t>92450934</t>
   </si>
   <si>
     <t>ALJADIS ARIAS BLANCO</t>
-  </si>
-  <si>
-    <t>1047410293</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS MARTINEZ CARRILLO</t>
-  </si>
-  <si>
-    <t>8981405</t>
-  </si>
-  <si>
-    <t>BENJAMIN RIOS CASTELLON</t>
-  </si>
-  <si>
-    <t>1143353681</t>
-  </si>
-  <si>
-    <t>LEONARDO JOSE MUÑOZ VERGARA</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -650,7 +659,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA5B582B-7085-28D6-0A42-EDBC5D16EAD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A02FE6-0282-2D12-9CF7-6B20A93621A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1001,8 +1010,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5C422A-B26D-4831-943F-7B9AC6E61482}">
-  <dimension ref="B2:J71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97175FD-7374-4140-88D2-69B8E7324A1D}">
+  <dimension ref="B2:J72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1026,7 +1035,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1071,7 +1080,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1103,12 +1112,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1371226</v>
+        <v>1398806</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1119,17 +1128,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F13" s="5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1156,13 +1165,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1179,7 +1188,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>1840</v>
+        <v>17480</v>
       </c>
       <c r="G16" s="18">
         <v>690000</v>
@@ -1202,7 +1211,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>17480</v>
+        <v>16560</v>
       </c>
       <c r="G17" s="18">
         <v>690000</v>
@@ -1222,13 +1231,13 @@
         <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F18" s="18">
-        <v>1840</v>
+        <v>26041</v>
       </c>
       <c r="G18" s="18">
-        <v>690000</v>
+        <v>700000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1239,19 +1248,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F19" s="18">
-        <v>1840</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
-        <v>690000</v>
+        <v>700000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1262,19 +1271,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F20" s="18">
-        <v>16560</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
-        <v>690000</v>
+        <v>700000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1285,16 +1294,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
         <v>700000</v>
@@ -1308,16 +1317,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F22" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
         <v>700000</v>
@@ -1331,16 +1340,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F23" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
         <v>700000</v>
@@ -1354,16 +1363,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
         <v>700000</v>
@@ -1377,16 +1386,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
         <v>700000</v>
@@ -1400,16 +1409,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
         <v>700000</v>
@@ -1423,16 +1432,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
         <v>700000</v>
@@ -1446,16 +1455,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
         <v>700000</v>
@@ -1469,16 +1478,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F29" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
         <v>700000</v>
@@ -1492,16 +1501,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
         <v>700000</v>
@@ -1515,16 +1524,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F31" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
         <v>700000</v>
@@ -1538,16 +1547,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F32" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
         <v>700000</v>
@@ -1561,16 +1570,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F33" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G33" s="18">
         <v>700000</v>
@@ -1584,16 +1593,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F34" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
         <v>700000</v>
@@ -1607,16 +1616,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F35" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
         <v>700000</v>
@@ -1630,16 +1639,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F36" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
         <v>700000</v>
@@ -1653,16 +1662,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F37" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
         <v>700000</v>
@@ -1676,16 +1685,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F38" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
         <v>700000</v>
@@ -1699,16 +1708,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F39" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
         <v>700000</v>
@@ -1722,13 +1731,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
@@ -1745,13 +1754,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
@@ -1768,13 +1777,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1791,13 +1800,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1814,16 +1823,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G44" s="18">
         <v>700000</v>
@@ -1837,16 +1846,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G45" s="18">
         <v>700000</v>
@@ -1860,16 +1869,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G46" s="18">
         <v>700000</v>
@@ -1883,16 +1892,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G47" s="18">
         <v>700000</v>
@@ -1906,16 +1915,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G48" s="18">
         <v>700000</v>
@@ -1929,16 +1938,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G49" s="18">
         <v>700000</v>
@@ -1952,16 +1961,16 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G50" s="18">
         <v>700000</v>
@@ -1975,16 +1984,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G51" s="18">
         <v>700000</v>
@@ -1998,16 +2007,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G52" s="18">
         <v>700000</v>
@@ -2021,16 +2030,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G53" s="18">
         <v>700000</v>
@@ -2044,16 +2053,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G54" s="18">
         <v>700000</v>
@@ -2067,16 +2076,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G55" s="18">
         <v>700000</v>
@@ -2090,16 +2099,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G56" s="18">
         <v>700000</v>
@@ -2113,16 +2122,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G57" s="18">
         <v>700000</v>
@@ -2136,16 +2145,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G58" s="18">
         <v>700000</v>
@@ -2159,16 +2168,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G59" s="18">
         <v>700000</v>
@@ -2182,16 +2191,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G60" s="18">
         <v>700000</v>
@@ -2205,16 +2214,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G61" s="18">
         <v>700000</v>
@@ -2228,16 +2237,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G62" s="18">
         <v>700000</v>
@@ -2251,19 +2260,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>1840</v>
       </c>
       <c r="G63" s="18">
-        <v>700000</v>
+        <v>690000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2274,75 +2283,98 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>1840</v>
       </c>
       <c r="G64" s="18">
-        <v>700000</v>
+        <v>690000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E65" s="22" t="s">
+      <c r="B65" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F65" s="24">
-        <v>26041</v>
-      </c>
-      <c r="G65" s="24">
-        <v>700000</v>
-      </c>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="26"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70" s="32"/>
-      <c r="H70" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="E65" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" s="18">
+        <v>27580</v>
+      </c>
+      <c r="G65" s="18">
+        <v>1576000</v>
+      </c>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="20"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B66" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="24">
+        <v>1840</v>
+      </c>
+      <c r="G66" s="24">
+        <v>690000</v>
+      </c>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="32" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C71" s="32"/>
       <c r="H71" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B72" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="32"/>
+      <c r="H72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B72:C72"/>
     <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="H72:J72"/>
     <mergeCell ref="H71:J71"/>
-    <mergeCell ref="H70:J70"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9007858451.xlsx
+++ b/Data/EC/NIT-9007858451.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFD355BB-9B12-4082-A5E3-578A7766998C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C6586DF-16D7-4F9B-96EB-4AEF8615E985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{39B389CB-7E64-4B45-9403-62B79378073F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5CB06E32-DFE6-4847-AAED-2DFC11F554A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="78">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -80,172 +80,163 @@
     <t>BENJAMIN RIOS CASTELLON</t>
   </si>
   <si>
+    <t>1047410293</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS MARTINEZ CARRILLO</t>
+  </si>
+  <si>
+    <t>1128054781</t>
+  </si>
+  <si>
+    <t>HELBER PERTUZ BELLO</t>
+  </si>
+  <si>
+    <t>92450934</t>
+  </si>
+  <si>
+    <t>ALJADIS ARIAS BLANCO</t>
+  </si>
+  <si>
     <t>1143353681</t>
   </si>
   <si>
     <t>LEONARDO JOSE MUÑOZ VERGARA</t>
   </si>
   <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
     <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1047410293</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS MARTINEZ CARRILLO</t>
-  </si>
-  <si>
-    <t>1128054781</t>
-  </si>
-  <si>
-    <t>HELBER PERTUZ BELLO</t>
-  </si>
-  <si>
-    <t>73432381</t>
-  </si>
-  <si>
-    <t>MARIO RAFAEL PARRA HERRERA</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>92450934</t>
-  </si>
-  <si>
-    <t>ALJADIS ARIAS BLANCO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -344,7 +335,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -357,9 +350,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -559,23 +550,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -603,10 +594,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -659,7 +650,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A02FE6-0282-2D12-9CF7-6B20A93621A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614D18FD-E3BD-FF32-8BD8-37C699F4E63F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1010,8 +1001,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97175FD-7374-4140-88D2-69B8E7324A1D}">
-  <dimension ref="B2:J72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16455FE8-1D45-4251-8170-8DE624BD88A8}">
+  <dimension ref="B2:J71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1035,7 +1026,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1080,7 +1071,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1112,12 +1103,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1398806</v>
+        <v>1371226</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1128,17 +1119,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F13" s="5">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1165,13 +1156,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1231,13 +1222,13 @@
         <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>26041</v>
+        <v>1840</v>
       </c>
       <c r="G18" s="18">
-        <v>700000</v>
+        <v>690000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1248,19 +1239,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>1840</v>
       </c>
       <c r="G19" s="18">
-        <v>700000</v>
+        <v>690000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1271,19 +1262,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>1840</v>
       </c>
       <c r="G20" s="18">
-        <v>700000</v>
+        <v>690000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1294,19 +1285,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G21" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1317,19 +1308,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G22" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1340,19 +1331,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G23" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1363,19 +1354,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G24" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1386,19 +1377,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G25" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1409,19 +1400,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G26" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1432,19 +1423,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G27" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1455,19 +1446,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G28" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1478,19 +1469,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G29" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1501,19 +1492,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G30" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1524,19 +1515,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G31" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1547,19 +1538,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G32" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1570,19 +1561,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G33" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1593,19 +1584,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G34" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1616,19 +1607,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G35" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1639,19 +1630,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G36" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1662,19 +1653,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G37" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1685,19 +1676,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G38" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1708,19 +1699,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>27600</v>
       </c>
       <c r="G39" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1731,19 +1722,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1754,19 +1745,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1777,19 +1768,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1800,19 +1791,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1823,19 +1814,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F44" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1846,19 +1837,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F45" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1869,19 +1860,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F46" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1892,19 +1883,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F47" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1915,19 +1906,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F48" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1938,19 +1929,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F49" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1961,19 +1952,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F50" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1984,19 +1975,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F51" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2007,19 +1998,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F52" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2030,19 +2021,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F53" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2053,19 +2044,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F54" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2076,19 +2067,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F55" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2099,19 +2090,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F56" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2122,19 +2113,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F57" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2145,19 +2136,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F58" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2168,19 +2159,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F59" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2191,19 +2182,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F60" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2214,19 +2205,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F61" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2237,19 +2228,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F62" s="18">
-        <v>27600</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
-        <v>700000</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2260,19 +2251,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="F63" s="18">
-        <v>1840</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>690000</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2283,98 +2274,75 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="F64" s="18">
-        <v>1840</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
-        <v>690000</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" s="17" t="s">
+      <c r="B65" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E65" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F65" s="18">
-        <v>27580</v>
-      </c>
-      <c r="G65" s="18">
-        <v>1576000</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E66" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="24">
-        <v>1840</v>
-      </c>
-      <c r="G66" s="24">
-        <v>690000</v>
-      </c>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
+      <c r="F65" s="24">
+        <v>26041</v>
+      </c>
+      <c r="G65" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="26"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="32"/>
+      <c r="H70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="32" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C71" s="32"/>
       <c r="H71" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72" s="32"/>
-      <c r="H72" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B72:C72"/>
     <mergeCell ref="B71:C71"/>
-    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="B70:C70"/>
     <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H70:J70"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9007858451.xlsx
+++ b/Data/EC/NIT-9007858451.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C6586DF-16D7-4F9B-96EB-4AEF8615E985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C63F4554-951D-4245-8EEB-E9779C288A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5CB06E32-DFE6-4847-AAED-2DFC11F554A6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EA7E56A4-8E9D-4B5B-BEEB-C69BAE08C4FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -335,9 +335,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -350,7 +348,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -544,29 +544,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,19 +585,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,7 +656,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614D18FD-E3BD-FF32-8BD8-37C699F4E63F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA58ADF-1474-5781-F7C5-A1868D1822D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1001,7 +1007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16455FE8-1D45-4251-8170-8DE624BD88A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EB2883-5329-48EE-B592-FFACF3808E9F}">
   <dimension ref="B2:J71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1024,49 +1030,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1074,7 +1080,7 @@
         <v>68</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1090,7 +1096,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9007858451</v>
       </c>
@@ -1106,7 +1112,7 @@
         <v>69</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>1371226</v>
       </c>
@@ -1175,18 +1181,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>17480</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>690000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1198,18 +1204,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>16560</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>690000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1221,18 +1227,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>1840</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>690000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1244,18 +1250,18 @@
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>1840</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>690000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1267,18 +1273,18 @@
       <c r="D20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>1840</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>690000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1290,18 +1296,18 @@
       <c r="D21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>27600</v>
       </c>
-      <c r="G21" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="G21" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1313,18 +1319,18 @@
       <c r="D22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>27600</v>
       </c>
-      <c r="G22" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="G22" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1336,18 +1342,18 @@
       <c r="D23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>27600</v>
       </c>
-      <c r="G23" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="G23" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1359,18 +1365,18 @@
       <c r="D24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>27600</v>
       </c>
-      <c r="G24" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="G24" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1382,18 +1388,18 @@
       <c r="D25" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>27600</v>
       </c>
-      <c r="G25" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="G25" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1405,18 +1411,18 @@
       <c r="D26" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>27600</v>
       </c>
-      <c r="G26" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="G26" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1428,18 +1434,18 @@
       <c r="D27" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>27600</v>
       </c>
-      <c r="G27" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="G27" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1451,18 +1457,18 @@
       <c r="D28" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>27600</v>
       </c>
-      <c r="G28" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="G28" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1474,18 +1480,18 @@
       <c r="D29" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>27600</v>
       </c>
-      <c r="G29" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="G29" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1497,18 +1503,18 @@
       <c r="D30" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>27600</v>
       </c>
-      <c r="G30" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="G30" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1520,18 +1526,18 @@
       <c r="D31" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>27600</v>
       </c>
-      <c r="G31" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="G31" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1543,18 +1549,18 @@
       <c r="D32" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>27600</v>
       </c>
-      <c r="G32" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="G32" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1566,18 +1572,18 @@
       <c r="D33" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>27600</v>
       </c>
-      <c r="G33" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="G33" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1589,18 +1595,18 @@
       <c r="D34" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>27600</v>
       </c>
-      <c r="G34" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="G34" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1612,18 +1618,18 @@
       <c r="D35" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>27600</v>
       </c>
-      <c r="G35" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="G35" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1635,18 +1641,18 @@
       <c r="D36" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>27600</v>
       </c>
-      <c r="G36" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="G36" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1658,18 +1664,18 @@
       <c r="D37" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>27600</v>
       </c>
-      <c r="G37" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="G37" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1681,18 +1687,18 @@
       <c r="D38" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>27600</v>
       </c>
-      <c r="G38" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="G38" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1704,18 +1710,18 @@
       <c r="D39" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>27600</v>
       </c>
-      <c r="G39" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="G39" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1727,18 +1733,18 @@
       <c r="D40" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G40" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G40" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1750,18 +1756,18 @@
       <c r="D41" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G41" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G41" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1773,18 +1779,18 @@
       <c r="D42" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G42" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G42" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1796,18 +1802,18 @@
       <c r="D43" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G43" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G43" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1819,18 +1825,18 @@
       <c r="D44" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F44" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G44" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G44" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1842,18 +1848,18 @@
       <c r="D45" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F45" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G45" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G45" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1865,18 +1871,18 @@
       <c r="D46" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F46" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G46" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G46" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1888,18 +1894,18 @@
       <c r="D47" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F47" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G47" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="F47" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G47" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1911,18 +1917,18 @@
       <c r="D48" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F48" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G48" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G48" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -1934,18 +1940,18 @@
       <c r="D49" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G49" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G49" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -1957,18 +1963,18 @@
       <c r="D50" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F50" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G50" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G50" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -1980,18 +1986,18 @@
       <c r="D51" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F51" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G51" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G51" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -2003,18 +2009,18 @@
       <c r="D52" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F52" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G52" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="F52" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G52" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2026,18 +2032,18 @@
       <c r="D53" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F53" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G53" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G53" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2049,18 +2055,18 @@
       <c r="D54" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F54" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G54" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="F54" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G54" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2072,18 +2078,18 @@
       <c r="D55" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F55" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G55" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G55" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2095,18 +2101,18 @@
       <c r="D56" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F56" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G56" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G56" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2118,18 +2124,18 @@
       <c r="D57" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F57" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G57" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="F57" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G57" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2141,18 +2147,18 @@
       <c r="D58" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F58" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G58" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G58" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2164,18 +2170,18 @@
       <c r="D59" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F59" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G59" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G59" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2187,18 +2193,18 @@
       <c r="D60" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F60" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G60" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="F60" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G60" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2210,18 +2216,18 @@
       <c r="D61" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F61" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G61" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G61" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2233,18 +2239,18 @@
       <c r="D62" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F62" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G62" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G62" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2256,18 +2262,18 @@
       <c r="D63" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F63" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G63" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G63" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2279,47 +2285,47 @@
       <c r="D64" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F64" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G64" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="F64" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G64" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E65" s="22" t="s">
+      <c r="B65" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F65" s="24">
+      <c r="F65" s="26">
         <v>26041</v>
       </c>
-      <c r="G65" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="26"/>
+      <c r="G65" s="26">
+        <v>781242</v>
+      </c>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="28"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C70" s="32"/>
+      <c r="C70" s="34"/>
       <c r="H70" s="1" t="s">
         <v>76</v>
       </c>
@@ -2327,10 +2333,10 @@
       <c r="J70" s="1"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="32" t="s">
+      <c r="B71" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="32"/>
+      <c r="C71" s="34"/>
       <c r="H71" s="1" t="s">
         <v>77</v>
       </c>
